--- a/RestAssured_FrameWork1/API_framework1_TestCaseDocument.xlsx
+++ b/RestAssured_FrameWork1/API_framework1_TestCaseDocument.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>URI</t>
   </si>
@@ -225,6 +225,24 @@
   </si>
   <si>
     <t>get employee data</t>
+  </si>
+  <si>
+    <t>https://reqres.in/</t>
+  </si>
+  <si>
+    <t>https://reqres.in/api/users?page=2</t>
+  </si>
+  <si>
+    <t>gets all users details</t>
+  </si>
+  <si>
+    <t>check contet-type, status code, responsetime,null check for responsebody</t>
+  </si>
+  <si>
+    <t>Body is:{"page":2,"per_page":6,"total":12,"total_pages":2,"data":[{"id":7,"email":"michael.lawson@reqres.in","first_name":"Michael","last_name":"Lawson","avatar":"https://reqres.in/img/faces/7-image.jpg"},{"id":8,"email":"lindsay.ferguson@reqres.in","first_name":"Lindsay","last_name":"Ferguson","avatar":"https://reqres.in/img/faces/8-image.jpg"},{"id":9,"email":"tobias.funke@reqres.in","first_name":"Tobias","last_name":"Funke","avatar":"https://reqres.in/img/faces/9-image.jpg"},{"id":10,"email":"byron.fields@reqres.in","first_name":"Byron","last_name":"Fields","avatar":"https://reqres.in/img/faces/10-image.jpg"},{"id":11,"email":"george.edwards@reqres.in","first_name":"George","last_name":"Edwards","avatar":"https://reqres.in/img/faces/11-image.jpg"},{"id":12,"email":"rachel.howell@reqres.in","first_name":"Rachel","last_name":"Howell","avatar":"https://reqres.in/img/faces/12-image.jpg"}],"support":{"url":"https://reqres.in/#support-heading","text":"To keep ReqRes free, contributions towards server costs are appreciated!"}}</t>
+  </si>
+  <si>
+    <t>TC 01</t>
   </si>
 </sst>
 </file>
@@ -343,7 +361,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -367,6 +385,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -666,7 +685,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -719,9 +738,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30">
+    <row r="2" spans="1:11" ht="45">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>62</v>
@@ -730,19 +749,29 @@
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="G2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2">
+        <v>200</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2"/>
@@ -837,11 +866,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/RestAssured_FrameWork1/API_framework1_TestCaseDocument.xlsx
+++ b/RestAssured_FrameWork1/API_framework1_TestCaseDocument.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
   <si>
     <t>URI</t>
   </si>
@@ -227,9 +227,6 @@
     <t>get employee data</t>
   </si>
   <si>
-    <t>https://reqres.in/</t>
-  </si>
-  <si>
     <t>https://reqres.in/api/users?page=2</t>
   </si>
   <si>
@@ -243,6 +240,61 @@
   </si>
   <si>
     <t>TC 01</t>
+  </si>
+  <si>
+    <t>TC 02</t>
+  </si>
+  <si>
+    <t>get single employee data</t>
+  </si>
+  <si>
+    <t>https://reqres.in/api/users/2</t>
+  </si>
+  <si>
+    <t>gets single user details based on path param : /2</t>
+  </si>
+  <si>
+    <t>validates for presence of "id" key in the body using "Assert.assertEquals(responsebody.contains(userid),true);"
+and other validations included are
+check contet-type, status code, responsetime,null check for responsebody</t>
+  </si>
+  <si>
+    <t>{
+    "data": {
+        "id": 2,
+        "email": "janet.weaver@reqres.in",
+        "first_name": "Janet",
+        "last_name": "Weaver",
+        "avatar": "https://reqres.in/img/faces/2-image.jpg"
+    },
+    "support": {
+        "url": "https://reqres.in/#support-heading",
+        "text": "To keep ReqRes free, contributions towards server costs are appreciated!"
+    }
+}</t>
+  </si>
+  <si>
+    <t>TC 03</t>
+  </si>
+  <si>
+    <t>post single record</t>
+  </si>
+  <si>
+    <t>https://reqres.in/api</t>
+  </si>
+  <si>
+    <t>validate "id" field if generated, status code , name filed
+String nameexpected=response.JsonPath.getstring("name");
+Assert.assertEqueals(nameexpected,"frameWorkUser")</t>
+  </si>
+  <si>
+    <t>Body is:{"name":"frameworkuserh","job":"jobcodeV","id":"826","createdAt":"2022-04-25T13:27:14.882Z"}</t>
+  </si>
+  <si>
+    <t>{
+    "name": "frameWorkUserh",
+    "job": "jobcodeV"
+}</t>
   </si>
 </sst>
 </file>
@@ -376,6 +428,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -385,7 +438,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -681,11 +733,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -740,7 +792,7 @@
     </row>
     <row r="2" spans="1:11" ht="45">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>62</v>
@@ -749,16 +801,16 @@
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>67</v>
+      <c r="G2" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>7</v>
@@ -767,37 +819,77 @@
         <v>200</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="315">
+      <c r="A3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2">
+        <v>200</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="120">
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>201</v>
+      </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2"/>
@@ -851,25 +943,17 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1153,19 +1237,19 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" ht="165">
       <c r="A10" s="2" t="s">
